--- a/Firmware Code/model maturity testing.xlsx
+++ b/Firmware Code/model maturity testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Smart_Devices\Arduino IoT devices\Arduino Studio\code\Firmware Code for Smart Devices\concrete_maturity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B583970-504B-44C4-B2D9-26FAA67ADA8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945F346F-4C49-4E04-85D4-3CBD107B519B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{9140E89D-C8DE-4A20-BFF0-F4E8D77225C4}"/>
   </bookViews>
@@ -129,6 +129,2137 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Maturity </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.9999999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.18333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.21666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.23333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.24999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.26666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.28333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.31666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.36666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.3833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.39999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.41666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.43333333333333329</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>26.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>108.33333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>135.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>189.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>216.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>243.00000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>270.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>297.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>351.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>378.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>404.99999999999994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>432.33333333333326</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>458.66666666666657</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>486.99999999999989</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>515.33333333333326</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>543.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>572</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>600.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>627.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>654.00000000000011</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>682.33333333333348</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>709.66666666666686</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-09D2-49E3-8184-5ADDABEDBD02}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2100737887"/>
+        <c:axId val="2088375471"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2100737887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2088375471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2088375471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2100737887"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Strength</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.9999999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.18333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.21666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.23333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.24999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.26666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.28333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.31666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.36666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.3833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.39999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.41666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.43333333333333329</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>43.420505836570776</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.721535832234757</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.903089986991944</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44.034762106259208</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.132473154505561</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.209515014542632</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.277227080991359</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44.33579210192319</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44.385606273598313</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44.431899599491494</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44.473730204168888</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44.511883360978871</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44.545719356156866</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44.578257076655341</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44.607455023214669</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44.635818721364416</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44.661497179179833</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44.687528961214632</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44.712088234862641</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44.735332706320612</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44.757396028793025</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44.778392458099873</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44.797729065297005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44.815577748324266</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44.833996587942842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44.85105440671866</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5091-47EE-934A-1B69DFE03331}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2100737887"/>
+        <c:axId val="2088375471"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2100737887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2088375471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2088375471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2100737887"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12213</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>303823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>14654</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5BA1840-E19F-40A1-901C-F74F097A7EB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63010</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>97692</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>65941</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>91831</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30E0CAAD-D72E-48D4-AFA0-0BF1FD113C61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -431,14 +2562,16 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="2"/>
-    <col min="3" max="3" width="8.36328125" style="2" customWidth="1"/>
-    <col min="4" max="6" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="5.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.36328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="3"/>
+    <col min="6" max="6" width="8.08984375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -490,7 +2623,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <f t="shared" ref="A3:A27" ca="1" si="0">26+RANDBETWEEN(0,2)</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1">
         <f t="shared" ref="B3:B27" si="1">60/3600</f>
@@ -502,15 +2635,15 @@
       </c>
       <c r="D3" s="3">
         <f t="shared" ref="D3:D27" ca="1" si="2">A3-(-20)*B3</f>
-        <v>27.333333333333332</v>
+        <v>26.333333333333332</v>
       </c>
       <c r="E3" s="3">
         <f ca="1">E2+D3</f>
-        <v>53.666666666666664</v>
+        <v>52.666666666666664</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" ref="F3:F27" ca="1" si="3">32+LOG(E3)+10</f>
-        <v>43.729704621312187</v>
+        <v>43.721535832234757</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -532,17 +2665,17 @@
       </c>
       <c r="E4" s="3">
         <f t="shared" ref="E4:E27" ca="1" si="5">E3+D4</f>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>43.90848501887865</v>
+        <v>43.903089986991944</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" si="1"/>
@@ -554,15 +2687,15 @@
       </c>
       <c r="D5" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>26.333333333333332</v>
+        <v>28.333333333333332</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>107.33333333333333</v>
+        <v>108.33333333333333</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>44.030734616976169</v>
+        <v>44.034762106259208</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -584,11 +2717,11 @@
       </c>
       <c r="E6" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>134.66666666666666</v>
+        <v>135.66666666666666</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>44.129260110390945</v>
+        <v>44.132473154505561</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -610,11 +2743,11 @@
       </c>
       <c r="E7" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>44.20682587603185</v>
+        <v>44.209515014542632</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -636,17 +2769,17 @@
       </c>
       <c r="E8" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>188.33333333333334</v>
+        <v>189.33333333333334</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>44.274927193099778</v>
+        <v>44.277227080991359</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="1"/>
@@ -658,21 +2791,21 @@
       </c>
       <c r="D9" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>26.333333333333332</v>
+        <v>27.333333333333332</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>214.66666666666669</v>
+        <v>216.66666666666669</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>44.33176461264015</v>
+        <v>44.33579210192319</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="1"/>
@@ -684,7 +2817,7 @@
       </c>
       <c r="D10" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>28.333333333333332</v>
+        <v>26.333333333333332</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -698,7 +2831,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="1"/>
@@ -710,21 +2843,21 @@
       </c>
       <c r="D11" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>26.333333333333332</v>
+        <v>27.333333333333332</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>269.33333333333337</v>
+        <v>270.33333333333337</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>44.430290106054926</v>
+        <v>44.431899599491494</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="1"/>
@@ -736,7 +2869,7 @@
       </c>
       <c r="D12" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>28.333333333333332</v>
+        <v>27.333333333333332</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -750,7 +2883,7 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="1"/>
@@ -762,21 +2895,21 @@
       </c>
       <c r="D13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>26.333333333333332</v>
+        <v>27.333333333333332</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>44.510545010206613</v>
+        <v>44.511883360978871</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" si="1"/>
@@ -788,21 +2921,21 @@
       </c>
       <c r="D14" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>28.333333333333332</v>
+        <v>26.333333333333332</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>352.33333333333331</v>
+        <v>351.33333333333331</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>44.546953732587767</v>
+        <v>44.545719356156866</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" si="1"/>
@@ -814,21 +2947,21 @@
       </c>
       <c r="D15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>28.333333333333332</v>
+        <v>27.333333333333332</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>380.66666666666663</v>
+        <v>378.66666666666663</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>44.580544849190169</v>
+        <v>44.578257076655341</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" si="1"/>
@@ -840,21 +2973,21 @@
       </c>
       <c r="D16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>27.333333333333332</v>
+        <v>26.333333333333332</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>407.99999999999994</v>
+        <v>404.99999999999994</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>44.610660163089882</v>
+        <v>44.607455023214669</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" si="1"/>
@@ -866,21 +2999,21 @@
       </c>
       <c r="D17" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>28.333333333333332</v>
+        <v>27.333333333333332</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>436.33333333333326</v>
+        <v>432.33333333333326</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>44.639818391831092</v>
+        <v>44.635818721364416</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" si="1"/>
@@ -892,15 +3025,15 @@
       </c>
       <c r="D18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>27.333333333333332</v>
+        <v>26.333333333333332</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>463.66666666666657</v>
+        <v>458.66666666666657</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>44.666205875272382</v>
+        <v>44.661497179179833</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -922,11 +3055,11 @@
       </c>
       <c r="E19" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>491.99999999999989</v>
+        <v>486.99999999999989</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>44.691965102767362</v>
+        <v>44.687528961214632</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -948,17 +3081,17 @@
       </c>
       <c r="E20" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>520.33333333333326</v>
+        <v>515.33333333333326</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>44.716281648342758</v>
+        <v>44.712088234862641</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" si="1"/>
@@ -970,21 +3103,21 @@
       </c>
       <c r="D21" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>27.333333333333332</v>
+        <v>28.333333333333332</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>547.66666666666663</v>
+        <v>543.66666666666663</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>44.738516308715397</v>
+        <v>44.735332706320612</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" si="1"/>
@@ -996,21 +3129,21 @@
       </c>
       <c r="D22" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>27.333333333333332</v>
+        <v>28.333333333333332</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>44.759667844689631</v>
+        <v>44.757396028793025</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" si="1"/>
@@ -1022,15 +3155,15 @@
       </c>
       <c r="D23" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>26.333333333333332</v>
+        <v>28.333333333333332</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>601.33333333333337</v>
+        <v>600.33333333333337</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>44.779115278486259</v>
+        <v>44.778392458099873</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -1052,17 +3185,17 @@
       </c>
       <c r="E24" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>628.66666666666674</v>
+        <v>627.66666666666674</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>44.798420433681649</v>
+        <v>44.797729065297005</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" si="1"/>
@@ -1074,21 +3207,21 @@
       </c>
       <c r="D25" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>27.333333333333332</v>
+        <v>26.333333333333332</v>
       </c>
       <c r="E25" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>656.00000000000011</v>
+        <v>654.00000000000011</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>44.816903839375662</v>
+        <v>44.815577748324266</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" si="1"/>
@@ -1100,21 +3233,21 @@
       </c>
       <c r="D26" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>27.333333333333332</v>
+        <v>28.333333333333332</v>
       </c>
       <c r="E26" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>683.33333333333348</v>
+        <v>682.33333333333348</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>44.834632606336093</v>
+        <v>44.833996587942842</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="1"/>
@@ -1126,19 +3259,20 @@
       </c>
       <c r="D27" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>28.333333333333332</v>
+        <v>27.333333333333332</v>
       </c>
       <c r="E27" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>711.66666666666686</v>
+        <v>709.66666666666686</v>
       </c>
       <c r="F27" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>44.852276624641377</v>
+        <v>44.85105440671866</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>